--- a/python api/test.xlsx
+++ b/python api/test.xlsx
@@ -1,25 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\THEKKBox\dev\web_stock_netdoi\python api\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="110">
+  <si>
+    <t>id</t>
+  </si>
   <si>
     <t>proid</t>
   </si>
@@ -46,17 +44,317 @@
   </si>
   <si>
     <t>project</t>
+  </si>
+  <si>
+    <t>6971693271401</t>
+  </si>
+  <si>
+    <t>G1SU6ZG064525</t>
+  </si>
+  <si>
+    <t>G1SUBKC074533</t>
+  </si>
+  <si>
+    <t>G1SUBKC074841</t>
+  </si>
+  <si>
+    <t>G1SUBKC074651</t>
+  </si>
+  <si>
+    <t>G1SUBKC07454A</t>
+  </si>
+  <si>
+    <t>G1SUBKC074554</t>
+  </si>
+  <si>
+    <t>G1SUBKC074478</t>
+  </si>
+  <si>
+    <t>G1SUBKC074499</t>
+  </si>
+  <si>
+    <t>G1SUBKC07458C</t>
+  </si>
+  <si>
+    <t>G1SUBKC074719</t>
+  </si>
+  <si>
+    <t>G1SUBKC079342</t>
+  </si>
+  <si>
+    <t>G1SUBKC074668</t>
+  </si>
+  <si>
+    <t>G1SUBKC074415</t>
+  </si>
+  <si>
+    <t>G1SUBKC07442C</t>
+  </si>
+  <si>
+    <t>G1SUBKC074482</t>
+  </si>
+  <si>
+    <t>G1SUBKC07437B</t>
+  </si>
+  <si>
+    <t>G1SUBKC074174</t>
+  </si>
+  <si>
+    <t>G1SUBKC076475</t>
+  </si>
+  <si>
+    <t>G1SUBKC07648C</t>
+  </si>
+  <si>
+    <t>G1SUBKC075732</t>
+  </si>
+  <si>
+    <t>G1SUBKC07416A</t>
+  </si>
+  <si>
+    <t>G1SUBKC07400A</t>
+  </si>
+  <si>
+    <t>G1SUBKC074149</t>
+  </si>
+  <si>
+    <t>G1SUBKC074512</t>
+  </si>
+  <si>
+    <t>G1SUBKC074132</t>
+  </si>
+  <si>
+    <t>G1SUBKC076551</t>
+  </si>
+  <si>
+    <t>G1SUBKC073971</t>
+  </si>
+  <si>
+    <t>G1SUBKC073807</t>
+  </si>
+  <si>
+    <t>G1SUBKC073904</t>
+  </si>
+  <si>
+    <t>G1SUBKC074081</t>
+  </si>
+  <si>
+    <t>G1SUBKC07367A</t>
+  </si>
+  <si>
+    <t>G1SUBKC073874</t>
+  </si>
+  <si>
+    <t>G1SUBKC073798</t>
+  </si>
+  <si>
+    <t>G1SUBKC074786</t>
+  </si>
+  <si>
+    <t>G1SUBKC079785</t>
+  </si>
+  <si>
+    <t>G1SUBKC073895</t>
+  </si>
+  <si>
+    <t>G1SUBKC075116</t>
+  </si>
+  <si>
+    <t>G1SUBKC075002</t>
+  </si>
+  <si>
+    <t>G1SUBKC077961</t>
+  </si>
+  <si>
+    <t>G1SUBKC07524B</t>
+  </si>
+  <si>
+    <t>G1SUBKC075141</t>
+  </si>
+  <si>
+    <t>G1SUBKC08239B</t>
+  </si>
+  <si>
+    <t>G1SUBKC075044</t>
+  </si>
+  <si>
+    <t>G1SUBKC075424</t>
+  </si>
+  <si>
+    <t>G1SUBKC075213</t>
+  </si>
+  <si>
+    <t>G1SUBKC079882</t>
+  </si>
+  <si>
+    <t>4881D40D6BB5</t>
+  </si>
+  <si>
+    <t>D4312787DC81</t>
+  </si>
+  <si>
+    <t>D4312787DCFD</t>
+  </si>
+  <si>
+    <t>D4312787DCB1</t>
+  </si>
+  <si>
+    <t>D4312787DC85</t>
+  </si>
+  <si>
+    <t>D4312787DC89</t>
+  </si>
+  <si>
+    <t>D4312787DC69</t>
+  </si>
+  <si>
+    <t>D4312787DC71</t>
+  </si>
+  <si>
+    <t>D4312787DC95</t>
+  </si>
+  <si>
+    <t>D4312787DCC9</t>
+  </si>
+  <si>
+    <t>D4312787E405</t>
+  </si>
+  <si>
+    <t>D4312787DCB5</t>
+  </si>
+  <si>
+    <t>D4312787DC51</t>
+  </si>
+  <si>
+    <t>D4312787DC55</t>
+  </si>
+  <si>
+    <t>D4312787DC6D</t>
+  </si>
+  <si>
+    <t>D4312787DC41</t>
+  </si>
+  <si>
+    <t>D4312787DBF1</t>
+  </si>
+  <si>
+    <t>D4312787DF89</t>
+  </si>
+  <si>
+    <t>D4312787DF8D</t>
+  </si>
+  <si>
+    <t>D4312787DE61</t>
+  </si>
+  <si>
+    <t>D4312787DBED</t>
+  </si>
+  <si>
+    <t>D4312787DBAD</t>
+  </si>
+  <si>
+    <t>D4312787DBE5</t>
+  </si>
+  <si>
+    <t>D4312787DC79</t>
+  </si>
+  <si>
+    <t>D4312787DBE1</t>
+  </si>
+  <si>
+    <t>D4312787DFA9</t>
+  </si>
+  <si>
+    <t>D4312787DBA1</t>
+  </si>
+  <si>
+    <t>D4312787DB5D</t>
+  </si>
+  <si>
+    <t>D4312787DB85</t>
+  </si>
+  <si>
+    <t>D4312787DBCD</t>
+  </si>
+  <si>
+    <t>D4312787DB29</t>
+  </si>
+  <si>
+    <t>D4312787DB79</t>
+  </si>
+  <si>
+    <t>D4312787DB59</t>
+  </si>
+  <si>
+    <t>D4312787DCE5</t>
+  </si>
+  <si>
+    <t>D4312787E4B5</t>
+  </si>
+  <si>
+    <t>D4312787DB81</t>
+  </si>
+  <si>
+    <t>D4312787DD69</t>
+  </si>
+  <si>
+    <t>D4312787DD3D</t>
+  </si>
+  <si>
+    <t>D4312787E1DD</t>
+  </si>
+  <si>
+    <t>D4312787DD9D</t>
+  </si>
+  <si>
+    <t>D4312787DD75</t>
+  </si>
+  <si>
+    <t>D4312787E8C9</t>
+  </si>
+  <si>
+    <t>D4312787DD4D</t>
+  </si>
+  <si>
+    <t>D4312787DDE5</t>
+  </si>
+  <si>
+    <t>D4312787DD91</t>
+  </si>
+  <si>
+    <t>D4312787E4DD</t>
+  </si>
+  <si>
+    <t>in stock</t>
+  </si>
+  <si>
+    <t>23/3/2024</t>
+  </si>
+  <si>
+    <t>23/03/2024</t>
+  </si>
+  <si>
+    <t>reyee</t>
+  </si>
+  <si>
+    <t>Reyee</t>
+  </si>
+  <si>
+    <t>RG-RAP2200(E)</t>
+  </si>
+  <si>
+    <t>ปูซาง</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -64,7 +362,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -111,23 +409,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ธีมของ Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -169,7 +459,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -201,10 +491,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -236,7 +525,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -412,16 +700,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -449,63 +735,1480 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <v>4</v>
-      </c>
-      <c r="E2">
-        <v>5</v>
-      </c>
-      <c r="F2">
-        <v>6</v>
+        <v>224</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2" t="s">
+        <v>104</v>
       </c>
       <c r="G2">
-        <v>7</v>
-      </c>
-      <c r="H2">
-        <v>8</v>
-      </c>
-      <c r="I2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I2" t="s">
+        <v>108</v>
+      </c>
+      <c r="J2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3">
-        <v>11</v>
-      </c>
-      <c r="B3">
+        <v>225</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>106</v>
+      </c>
+      <c r="I3" t="s">
+        <v>108</v>
+      </c>
+      <c r="J3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4">
+        <v>226</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F4" t="s">
+        <v>104</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>106</v>
+      </c>
+      <c r="I4" t="s">
+        <v>108</v>
+      </c>
+      <c r="J4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5">
+        <v>227</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F5" t="s">
+        <v>104</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>106</v>
+      </c>
+      <c r="I5" t="s">
+        <v>108</v>
+      </c>
+      <c r="J5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6">
+        <v>228</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" t="s">
+        <v>103</v>
+      </c>
+      <c r="F6" t="s">
+        <v>104</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>106</v>
+      </c>
+      <c r="I6" t="s">
+        <v>108</v>
+      </c>
+      <c r="J6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7">
+        <v>229</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>106</v>
+      </c>
+      <c r="I7" t="s">
+        <v>108</v>
+      </c>
+      <c r="J7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8">
+        <v>230</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>106</v>
+      </c>
+      <c r="I8" t="s">
+        <v>108</v>
+      </c>
+      <c r="J8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9">
+        <v>231</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>106</v>
+      </c>
+      <c r="I9" t="s">
+        <v>108</v>
+      </c>
+      <c r="J9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10">
+        <v>232</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" t="s">
+        <v>103</v>
+      </c>
+      <c r="F10" t="s">
+        <v>104</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I10" t="s">
+        <v>108</v>
+      </c>
+      <c r="J10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11">
+        <v>233</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" t="s">
+        <v>103</v>
+      </c>
+      <c r="F11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>106</v>
+      </c>
+      <c r="I11" t="s">
+        <v>108</v>
+      </c>
+      <c r="J11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12">
+        <v>234</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" t="s">
+        <v>103</v>
+      </c>
+      <c r="F12" t="s">
+        <v>104</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
+        <v>106</v>
+      </c>
+      <c r="I12" t="s">
+        <v>108</v>
+      </c>
+      <c r="J12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13">
+        <v>235</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
         <v>22</v>
       </c>
-      <c r="C3">
+      <c r="D13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" t="s">
+        <v>103</v>
+      </c>
+      <c r="F13" t="s">
+        <v>104</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13" t="s">
+        <v>106</v>
+      </c>
+      <c r="I13" t="s">
+        <v>108</v>
+      </c>
+      <c r="J13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14">
+        <v>236</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" t="s">
+        <v>103</v>
+      </c>
+      <c r="F14" t="s">
+        <v>104</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14" t="s">
+        <v>106</v>
+      </c>
+      <c r="I14" t="s">
+        <v>108</v>
+      </c>
+      <c r="J14" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15">
+        <v>237</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" t="s">
+        <v>103</v>
+      </c>
+      <c r="F15" t="s">
+        <v>104</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15" t="s">
+        <v>106</v>
+      </c>
+      <c r="I15" t="s">
+        <v>108</v>
+      </c>
+      <c r="J15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16">
+        <v>238</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" t="s">
+        <v>103</v>
+      </c>
+      <c r="F16" t="s">
+        <v>104</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16" t="s">
+        <v>106</v>
+      </c>
+      <c r="I16" t="s">
+        <v>108</v>
+      </c>
+      <c r="J16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17">
+        <v>239</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" t="s">
+        <v>103</v>
+      </c>
+      <c r="F17" t="s">
+        <v>104</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17" t="s">
+        <v>106</v>
+      </c>
+      <c r="I17" t="s">
+        <v>108</v>
+      </c>
+      <c r="J17" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18">
+        <v>240</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" t="s">
+        <v>103</v>
+      </c>
+      <c r="F18" t="s">
+        <v>104</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18" t="s">
+        <v>106</v>
+      </c>
+      <c r="I18" t="s">
+        <v>108</v>
+      </c>
+      <c r="J18" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19">
+        <v>241</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" t="s">
+        <v>74</v>
+      </c>
+      <c r="E19" t="s">
+        <v>103</v>
+      </c>
+      <c r="F19" t="s">
+        <v>104</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19" t="s">
+        <v>106</v>
+      </c>
+      <c r="I19" t="s">
+        <v>108</v>
+      </c>
+      <c r="J19" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20">
+        <v>242</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" t="s">
+        <v>103</v>
+      </c>
+      <c r="F20" t="s">
+        <v>104</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20" t="s">
+        <v>106</v>
+      </c>
+      <c r="I20" t="s">
+        <v>108</v>
+      </c>
+      <c r="J20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21">
+        <v>243</v>
+      </c>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" t="s">
+        <v>103</v>
+      </c>
+      <c r="F21" t="s">
+        <v>104</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21" t="s">
+        <v>106</v>
+      </c>
+      <c r="I21" t="s">
+        <v>108</v>
+      </c>
+      <c r="J21" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22">
+        <v>244</v>
+      </c>
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" t="s">
+        <v>103</v>
+      </c>
+      <c r="F22" t="s">
+        <v>104</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22" t="s">
+        <v>106</v>
+      </c>
+      <c r="I22" t="s">
+        <v>108</v>
+      </c>
+      <c r="J22" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23">
+        <v>245</v>
+      </c>
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" t="s">
+        <v>103</v>
+      </c>
+      <c r="F23" t="s">
+        <v>104</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23" t="s">
+        <v>106</v>
+      </c>
+      <c r="I23" t="s">
+        <v>108</v>
+      </c>
+      <c r="J23" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24">
+        <v>246</v>
+      </c>
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" t="s">
         <v>33</v>
       </c>
-      <c r="D3">
+      <c r="D24" t="s">
+        <v>79</v>
+      </c>
+      <c r="E24" t="s">
+        <v>103</v>
+      </c>
+      <c r="F24" t="s">
+        <v>104</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24" t="s">
+        <v>106</v>
+      </c>
+      <c r="I24" t="s">
+        <v>108</v>
+      </c>
+      <c r="J24" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25">
+        <v>247</v>
+      </c>
+      <c r="B25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" t="s">
+        <v>80</v>
+      </c>
+      <c r="E25" t="s">
+        <v>103</v>
+      </c>
+      <c r="F25" t="s">
+        <v>104</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25" t="s">
+        <v>106</v>
+      </c>
+      <c r="I25" t="s">
+        <v>108</v>
+      </c>
+      <c r="J25" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26">
+        <v>248</v>
+      </c>
+      <c r="B26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" t="s">
+        <v>81</v>
+      </c>
+      <c r="E26" t="s">
+        <v>103</v>
+      </c>
+      <c r="F26" t="s">
+        <v>104</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26" t="s">
+        <v>106</v>
+      </c>
+      <c r="I26" t="s">
+        <v>108</v>
+      </c>
+      <c r="J26" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27">
+        <v>249</v>
+      </c>
+      <c r="B27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" t="s">
+        <v>82</v>
+      </c>
+      <c r="E27" t="s">
+        <v>103</v>
+      </c>
+      <c r="F27" t="s">
+        <v>105</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27" t="s">
+        <v>107</v>
+      </c>
+      <c r="I27" t="s">
+        <v>108</v>
+      </c>
+      <c r="J27" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28">
+        <v>250</v>
+      </c>
+      <c r="B28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" t="s">
+        <v>83</v>
+      </c>
+      <c r="E28" t="s">
+        <v>103</v>
+      </c>
+      <c r="F28" t="s">
+        <v>105</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28" t="s">
+        <v>107</v>
+      </c>
+      <c r="I28" t="s">
+        <v>108</v>
+      </c>
+      <c r="J28" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29">
+        <v>251</v>
+      </c>
+      <c r="B29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" t="s">
+        <v>84</v>
+      </c>
+      <c r="E29" t="s">
+        <v>103</v>
+      </c>
+      <c r="F29" t="s">
+        <v>105</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29" t="s">
+        <v>107</v>
+      </c>
+      <c r="I29" t="s">
+        <v>108</v>
+      </c>
+      <c r="J29" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30">
+        <v>252</v>
+      </c>
+      <c r="B30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30" t="s">
+        <v>85</v>
+      </c>
+      <c r="E30" t="s">
+        <v>103</v>
+      </c>
+      <c r="F30" t="s">
+        <v>105</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30" t="s">
+        <v>107</v>
+      </c>
+      <c r="I30" t="s">
+        <v>108</v>
+      </c>
+      <c r="J30" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31">
+        <v>253</v>
+      </c>
+      <c r="B31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" t="s">
+        <v>86</v>
+      </c>
+      <c r="E31" t="s">
+        <v>103</v>
+      </c>
+      <c r="F31" t="s">
+        <v>105</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31" t="s">
+        <v>107</v>
+      </c>
+      <c r="I31" t="s">
+        <v>108</v>
+      </c>
+      <c r="J31" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32">
+        <v>254</v>
+      </c>
+      <c r="B32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" t="s">
+        <v>87</v>
+      </c>
+      <c r="E32" t="s">
+        <v>103</v>
+      </c>
+      <c r="F32" t="s">
+        <v>105</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32" t="s">
+        <v>107</v>
+      </c>
+      <c r="I32" t="s">
+        <v>108</v>
+      </c>
+      <c r="J32" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33">
+        <v>255</v>
+      </c>
+      <c r="B33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" t="s">
+        <v>42</v>
+      </c>
+      <c r="D33" t="s">
+        <v>88</v>
+      </c>
+      <c r="E33" t="s">
+        <v>103</v>
+      </c>
+      <c r="F33" t="s">
+        <v>105</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33" t="s">
+        <v>107</v>
+      </c>
+      <c r="I33" t="s">
+        <v>108</v>
+      </c>
+      <c r="J33" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34">
+        <v>256</v>
+      </c>
+      <c r="B34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34" t="s">
+        <v>89</v>
+      </c>
+      <c r="E34" t="s">
+        <v>103</v>
+      </c>
+      <c r="F34" t="s">
+        <v>105</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34" t="s">
+        <v>107</v>
+      </c>
+      <c r="I34" t="s">
+        <v>108</v>
+      </c>
+      <c r="J34" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35">
+        <v>257</v>
+      </c>
+      <c r="B35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" t="s">
         <v>44</v>
       </c>
-      <c r="E3">
+      <c r="D35" t="s">
+        <v>90</v>
+      </c>
+      <c r="E35" t="s">
+        <v>103</v>
+      </c>
+      <c r="F35" t="s">
+        <v>105</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35" t="s">
+        <v>107</v>
+      </c>
+      <c r="I35" t="s">
+        <v>108</v>
+      </c>
+      <c r="J35" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36">
+        <v>258</v>
+      </c>
+      <c r="B36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36" t="s">
+        <v>91</v>
+      </c>
+      <c r="E36" t="s">
+        <v>103</v>
+      </c>
+      <c r="F36" t="s">
+        <v>105</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36" t="s">
+        <v>107</v>
+      </c>
+      <c r="I36" t="s">
+        <v>108</v>
+      </c>
+      <c r="J36" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37">
+        <v>259</v>
+      </c>
+      <c r="B37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" t="s">
+        <v>46</v>
+      </c>
+      <c r="D37" t="s">
+        <v>92</v>
+      </c>
+      <c r="E37" t="s">
+        <v>103</v>
+      </c>
+      <c r="F37" t="s">
+        <v>105</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37" t="s">
+        <v>107</v>
+      </c>
+      <c r="I37" t="s">
+        <v>108</v>
+      </c>
+      <c r="J37" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38">
+        <v>260</v>
+      </c>
+      <c r="B38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" t="s">
+        <v>47</v>
+      </c>
+      <c r="D38" t="s">
+        <v>93</v>
+      </c>
+      <c r="E38" t="s">
+        <v>103</v>
+      </c>
+      <c r="F38" t="s">
+        <v>105</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38" t="s">
+        <v>107</v>
+      </c>
+      <c r="I38" t="s">
+        <v>108</v>
+      </c>
+      <c r="J38" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39">
+        <v>261</v>
+      </c>
+      <c r="B39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" t="s">
+        <v>48</v>
+      </c>
+      <c r="D39" t="s">
+        <v>94</v>
+      </c>
+      <c r="E39" t="s">
+        <v>103</v>
+      </c>
+      <c r="F39" t="s">
+        <v>105</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39" t="s">
+        <v>107</v>
+      </c>
+      <c r="I39" t="s">
+        <v>108</v>
+      </c>
+      <c r="J39" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40">
+        <v>262</v>
+      </c>
+      <c r="B40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" t="s">
+        <v>49</v>
+      </c>
+      <c r="D40" t="s">
+        <v>95</v>
+      </c>
+      <c r="E40" t="s">
+        <v>103</v>
+      </c>
+      <c r="F40" t="s">
+        <v>105</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40" t="s">
+        <v>107</v>
+      </c>
+      <c r="I40" t="s">
+        <v>108</v>
+      </c>
+      <c r="J40" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41">
+        <v>263</v>
+      </c>
+      <c r="B41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" t="s">
+        <v>50</v>
+      </c>
+      <c r="D41" t="s">
+        <v>96</v>
+      </c>
+      <c r="E41" t="s">
+        <v>103</v>
+      </c>
+      <c r="F41" t="s">
+        <v>105</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41" t="s">
+        <v>107</v>
+      </c>
+      <c r="I41" t="s">
+        <v>108</v>
+      </c>
+      <c r="J41" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42">
+        <v>264</v>
+      </c>
+      <c r="B42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" t="s">
+        <v>51</v>
+      </c>
+      <c r="D42" t="s">
+        <v>97</v>
+      </c>
+      <c r="E42" t="s">
+        <v>103</v>
+      </c>
+      <c r="F42" t="s">
+        <v>105</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42" t="s">
+        <v>107</v>
+      </c>
+      <c r="I42" t="s">
+        <v>108</v>
+      </c>
+      <c r="J42" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43">
+        <v>265</v>
+      </c>
+      <c r="B43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" t="s">
+        <v>52</v>
+      </c>
+      <c r="D43" t="s">
+        <v>98</v>
+      </c>
+      <c r="E43" t="s">
+        <v>103</v>
+      </c>
+      <c r="F43" t="s">
+        <v>105</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43" t="s">
+        <v>107</v>
+      </c>
+      <c r="I43" t="s">
+        <v>108</v>
+      </c>
+      <c r="J43" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44">
+        <v>266</v>
+      </c>
+      <c r="B44" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" t="s">
+        <v>53</v>
+      </c>
+      <c r="D44" t="s">
+        <v>99</v>
+      </c>
+      <c r="E44" t="s">
+        <v>103</v>
+      </c>
+      <c r="F44" t="s">
+        <v>105</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44" t="s">
+        <v>107</v>
+      </c>
+      <c r="I44" t="s">
+        <v>108</v>
+      </c>
+      <c r="J44" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45">
+        <v>267</v>
+      </c>
+      <c r="B45" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" t="s">
+        <v>54</v>
+      </c>
+      <c r="D45" t="s">
+        <v>100</v>
+      </c>
+      <c r="E45" t="s">
+        <v>103</v>
+      </c>
+      <c r="F45" t="s">
+        <v>105</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45" t="s">
+        <v>107</v>
+      </c>
+      <c r="I45" t="s">
+        <v>108</v>
+      </c>
+      <c r="J45" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46">
+        <v>268</v>
+      </c>
+      <c r="B46" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" t="s">
         <v>55</v>
       </c>
-      <c r="F3">
-        <v>66</v>
-      </c>
-      <c r="G3">
-        <v>77</v>
-      </c>
-      <c r="H3">
-        <v>88</v>
-      </c>
-      <c r="I3">
-        <v>99</v>
+      <c r="D46" t="s">
+        <v>101</v>
+      </c>
+      <c r="E46" t="s">
+        <v>103</v>
+      </c>
+      <c r="F46" t="s">
+        <v>105</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46" t="s">
+        <v>107</v>
+      </c>
+      <c r="I46" t="s">
+        <v>108</v>
+      </c>
+      <c r="J46" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47">
+        <v>269</v>
+      </c>
+      <c r="B47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" t="s">
+        <v>56</v>
+      </c>
+      <c r="D47" t="s">
+        <v>102</v>
+      </c>
+      <c r="E47" t="s">
+        <v>103</v>
+      </c>
+      <c r="F47" t="s">
+        <v>105</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47" t="s">
+        <v>107</v>
+      </c>
+      <c r="I47" t="s">
+        <v>108</v>
+      </c>
+      <c r="J47" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
